--- a/case/base.xlsx
+++ b/case/base.xlsx
@@ -409,10 +409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -455,6 +455,16 @@
         <v>6</v>
       </c>
     </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/case/base.xlsx
+++ b/case/base.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" tabRatio="500"/>
+    <workbookView xWindow="-4060" yWindow="740" windowWidth="32300" windowHeight="15860" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>case编号</t>
     <rPh sb="4" eb="5">
@@ -85,6 +85,45 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>tiao jian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>result</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预期方式</t>
+    <rPh sb="0" eb="1">
+      <t>yu q</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fang shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>errorCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>errorCodeMessage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ps：走配置文件</t>
+    <rPh sb="3" eb="4">
+      <t>zou o</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>pei zhi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>wen jian</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -409,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -422,11 +461,11 @@
     <col min="5" max="5" width="17.33203125" customWidth="1"/>
     <col min="6" max="6" width="24.33203125" customWidth="1"/>
     <col min="7" max="7" width="19.1640625" customWidth="1"/>
-    <col min="8" max="8" width="27" customWidth="1"/>
-    <col min="9" max="9" width="32.83203125" customWidth="1"/>
+    <col min="8" max="9" width="27" customWidth="1"/>
+    <col min="10" max="10" width="32.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -452,17 +491,40 @@
         <v>5</v>
       </c>
       <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
         <v>6</v>
       </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
+      <c r="I2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
+      </c>
+      <c r="I3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I4" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/case/base.xlsx
+++ b/case/base.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-4060" yWindow="740" windowWidth="32300" windowHeight="15860" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="540" windowWidth="28800" windowHeight="15860" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,47 +24,63 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>case编号</t>
-    <rPh sb="4" eb="5">
-      <t>bian hao</t>
+  </si>
+  <si>
+    <t>作用</t>
+  </si>
+  <si>
+    <t>是否执行</t>
+  </si>
+  <si>
+    <t>前置条件</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>method</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>cookie操作</t>
+  </si>
+  <si>
+    <t>预期方式</t>
+  </si>
+  <si>
+    <t>预期结果</t>
+  </si>
+  <si>
+    <t>测试啊测试</t>
+  </si>
+  <si>
+    <t>errorCodeMessage</t>
+  </si>
+  <si>
+    <t>ps：走配置文件</t>
+  </si>
+  <si>
+    <t>errorCode</t>
+  </si>
+  <si>
+    <t>json</t>
+  </si>
+  <si>
+    <t>通过</t>
+    <rPh sb="0" eb="1">
+      <t>tong guo</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>是否执行</t>
+    <t>测试结果</t>
     <rPh sb="0" eb="1">
-      <t>shi fou</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>zhi xing</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>url</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>method</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cookie操作</t>
-    <rPh sb="6" eb="7">
-      <t>cao zuo</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预期结果</t>
-    <rPh sb="0" eb="1">
-      <t>yu qi</t>
+      <t>ce shi</t>
     </rPh>
     <rPh sb="2" eb="3">
       <t>jie guo</t>
@@ -72,58 +88,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>作用</t>
+    <t>失败</t>
     <rPh sb="0" eb="1">
-      <t>zuo yong</t>
+      <t>shi bai</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>前置条件</t>
+    <t>失败信息</t>
     <rPh sb="0" eb="1">
-      <t>qian zhi</t>
+      <t>shi bai</t>
     </rPh>
     <rPh sb="2" eb="3">
-      <t>tiao jian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>result</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预期方式</t>
-    <rPh sb="0" eb="1">
-      <t>yu q</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>fang shi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>errorCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>errorCodeMessage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ps：走配置文件</t>
-    <rPh sb="3" eb="4">
-      <t>zou o</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>pei zhi</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>wen jian</t>
+      <t>xin xi</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -448,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -465,66 +442,81 @@
     <col min="10" max="10" width="32.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" t="s">
-        <v>10</v>
-      </c>
       <c r="J1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>9</v>
+        <v>16</v>
+      </c>
+      <c r="L1" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
       <c r="I2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J2" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="K2" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J3">
         <v>1006</v>
       </c>
+      <c r="K3" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="I4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/case/base.xlsx
+++ b/case/base.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>case编号</t>
   </si>
@@ -100,6 +100,13 @@
       <t>shi bai</t>
     </rPh>
     <rPh sb="2" eb="3">
+      <t>xin xi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>header信息</t>
+    <rPh sb="6" eb="7">
       <t>xin xi</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -425,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -438,11 +445,11 @@
     <col min="5" max="5" width="17.33203125" customWidth="1"/>
     <col min="6" max="6" width="24.33203125" customWidth="1"/>
     <col min="7" max="7" width="19.1640625" customWidth="1"/>
-    <col min="8" max="9" width="27" customWidth="1"/>
-    <col min="10" max="10" width="32.83203125" customWidth="1"/>
+    <col min="8" max="10" width="27" customWidth="1"/>
+    <col min="11" max="11" width="32.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -468,19 +475,22 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>16</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -490,32 +500,32 @@
       <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>11</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>12</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>13</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>1006</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="I4" t="s">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J4" t="s">
         <v>14</v>
       </c>
     </row>

--- a/case/base.xlsx
+++ b/case/base.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>case编号</t>
   </si>
@@ -33,9 +33,6 @@
   </si>
   <si>
     <t>是否执行</t>
-  </si>
-  <si>
-    <t>前置条件</t>
   </si>
   <si>
     <t>url</t>
@@ -95,20 +92,50 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>失败信息</t>
-    <rPh sb="0" eb="1">
-      <t>shi bai</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>xin xi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>header信息</t>
     <rPh sb="6" eb="7">
       <t>xin xi</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回结果</t>
+    <rPh sb="0" eb="1">
+      <t>fan hui</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie guo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"status":1,"data":{"banner":[{"id":1},{"id":3}]},"errorCode":1006,"errorDesc":"token error", "timestamp":1562401775717}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1&gt;data.banner.id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>依赖数据</t>
+    <rPh sb="0" eb="1">
+      <t>yi lai shu ju</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>依赖key</t>
+    <rPh sb="0" eb="1">
+      <t>yi lai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>brand_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yes</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -432,24 +459,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="23.33203125" customWidth="1"/>
-    <col min="3" max="4" width="23.1640625" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" customWidth="1"/>
-    <col min="6" max="6" width="24.33203125" customWidth="1"/>
-    <col min="7" max="7" width="19.1640625" customWidth="1"/>
-    <col min="8" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="32.83203125" customWidth="1"/>
+    <col min="3" max="5" width="23.1640625" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" customWidth="1"/>
+    <col min="7" max="7" width="24.33203125" customWidth="1"/>
+    <col min="8" max="8" width="19.1640625" customWidth="1"/>
+    <col min="9" max="11" width="27" customWidth="1"/>
+    <col min="12" max="12" width="32.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -460,73 +487,85 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>16</v>
-      </c>
       <c r="M1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>11</v>
       </c>
-      <c r="K2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" t="s">
-        <v>15</v>
+      <c r="M2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="J3" t="s">
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3">
+        <v>1006</v>
+      </c>
+      <c r="M3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K4" t="s">
         <v>13</v>
-      </c>
-      <c r="K3">
-        <v>1006</v>
-      </c>
-      <c r="L3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="J4" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/case/base.xlsx
+++ b/case/base.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="540" windowWidth="28800" windowHeight="15860" tabRatio="500"/>
+    <workbookView xWindow="5480" yWindow="3860" windowWidth="28800" windowHeight="15860" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>case编号</t>
   </si>
@@ -44,9 +44,6 @@
     <t>data</t>
   </si>
   <si>
-    <t>cookie操作</t>
-  </si>
-  <si>
     <t>预期方式</t>
   </si>
   <si>
@@ -56,16 +53,10 @@
     <t>测试啊测试</t>
   </si>
   <si>
-    <t>errorCodeMessage</t>
-  </si>
-  <si>
     <t>ps：走配置文件</t>
   </si>
   <si>
     <t>errorCode</t>
-  </si>
-  <si>
-    <t>json</t>
   </si>
   <si>
     <t>通过</t>
@@ -136,6 +127,29 @@
   </si>
   <si>
     <t>yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>write</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>read</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>token认证</t>
+    <rPh sb="5" eb="6">
+      <t>ren zheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>errorCodeMessage</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -461,8 +475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -487,10 +501,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -502,22 +516,22 @@
         <v>5</v>
       </c>
       <c r="I1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" t="s">
-        <v>8</v>
-      </c>
       <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
         <v>15</v>
-      </c>
-      <c r="N1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -525,22 +539,25 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>11</v>
       </c>
-      <c r="M2" t="s">
-        <v>14</v>
-      </c>
       <c r="N2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -548,24 +565,27 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
         <v>20</v>
       </c>
-      <c r="E3" t="s">
+      <c r="I3" t="s">
         <v>23</v>
       </c>
       <c r="K3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L3">
         <v>1006</v>
       </c>
       <c r="M3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="K4" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
